--- a/backend/fms_core/tests/valid_templates/Sample_transfer_v4_6_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_transfer_v4_6_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA2C2EC-994C-704A-A6CF-FD42E6B60A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310ABCE9-B44A-C840-943E-CFDD1B0B7E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30040" windowHeight="11580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="458">
   <si>
     <t>Sample Transfer Template</t>
   </si>
@@ -1437,6 +1437,9 @@
   </si>
   <si>
     <t>Version : 4.6.0</t>
+  </si>
+  <si>
+    <t>Keep Source Coord for Destination</t>
   </si>
 </sst>
 </file>
@@ -2356,14 +2359,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
@@ -2391,7 +2394,7 @@
         <v>456</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>455</v>
@@ -2569,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="43" t="str">
-        <f t="shared" ref="E7:E70" si="0">IF(AND(E$2="Yes",NOT(ISBLANK($C8))),C8,"")</f>
+        <f t="shared" ref="E8:E70" si="0">IF(AND(E$2="Yes",NOT(ISBLANK($C8))),C8,"")</f>
         <v/>
       </c>
       <c r="F8" s="14" t="s">
@@ -6364,7 +6367,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6372,7 +6375,7 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="52.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
     <col min="6" max="22" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6390,7 +6393,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">

--- a/backend/fms_core/tests/valid_templates/Sample_transfer_v4_6_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_transfer_v4_6_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarcelino/Desktop/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310ABCE9-B44A-C840-943E-CFDD1B0B7E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6962C-A46E-764F-BC54-97CB92DEE77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30040" windowHeight="11580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="11580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleTransfer" sheetId="1" r:id="rId1"/>
@@ -2359,7 +2359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2526,9 +2526,6 @@
       <c r="D7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
@@ -2571,9 +2568,8 @@
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="43" t="str">
-        <f t="shared" ref="E8:E70" si="0">IF(AND(E$2="Yes",NOT(ISBLANK($C8))),C8,"")</f>
-        <v/>
+      <c r="E8" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>34</v>
@@ -2645,7 +2641,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E8:E70" si="0">IF(AND(E$2="Yes",NOT(ISBLANK($C10))),C10,"")</f>
         <v/>
       </c>
       <c r="F10" s="14"/>
@@ -5092,7 +5088,7 @@
       <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E6:E101" xr:uid="{72A3F1FD-443A-694A-8440-492086E68F93}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E6 E8:E101" xr:uid="{72A3F1FD-443A-694A-8440-492086E68F93}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
